--- a/data/georgia_census/samegrelo/martvili/average_wages.xlsx
+++ b/data/georgia_census/samegrelo/martvili/average_wages.xlsx
@@ -1106,13 +1106,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C528E5E5-1DF4-444D-9EA5-CDDE0CA1FDDE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12B9DDB8-2BD2-4FE8-ACD4-099C9D578425}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F05A1C2B-FB98-4A0B-BA82-6AAA8455F923}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2974ADB8-F96C-4C80-A9D3-9150E9DFD5C8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3740C2E-AAA5-4B8E-B6BA-A3358BD475B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B009BCF4-A666-4F9F-AF7B-51FB947A04E5}"/>
 </file>